--- a/examples/models/model_v1_manual3.xlsx
+++ b/examples/models/model_v1_manual3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="372">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -676,10 +676,10 @@
     <t>activators</t>
   </si>
   <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
+    <t>negative effectors</t>
+  </si>
+  <si>
+    <t>positive effectors</t>
   </si>
   <si>
     <t>allosteric</t>
@@ -688,49 +688,43 @@
     <t>subunits</t>
   </si>
   <si>
-    <t>mechanism_ref_type</t>
-  </si>
-  <si>
-    <t>mechanism_ref</t>
-  </si>
-  <si>
-    <t>inhibitors_ref_type</t>
-  </si>
-  <si>
-    <t>inhibitors_ref</t>
-  </si>
-  <si>
-    <t>activators_ref_type</t>
-  </si>
-  <si>
-    <t>activators_ref</t>
-  </si>
-  <si>
-    <t>negative_effectors_ref_type</t>
-  </si>
-  <si>
-    <t>negative_effectors_ref</t>
-  </si>
-  <si>
-    <t>positive_effectors_ref_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_ref</t>
-  </si>
-  <si>
-    <t>subunits_ref_type</t>
-  </si>
-  <si>
-    <t>subunits_ref</t>
-  </si>
-  <si>
-    <t>subunits_comments1</t>
-  </si>
-  <si>
-    <t>subunits_comments2</t>
-  </si>
-  <si>
-    <t>general_comments</t>
+    <t>mechanism_refs_type</t>
+  </si>
+  <si>
+    <t>mechanism_refs</t>
+  </si>
+  <si>
+    <t>inhibitors_refs_type</t>
+  </si>
+  <si>
+    <t>inhibitors_refs</t>
+  </si>
+  <si>
+    <t>activators_refs_type</t>
+  </si>
+  <si>
+    <t>activators_refs</t>
+  </si>
+  <si>
+    <t>negative_effectors_refs_type</t>
+  </si>
+  <si>
+    <t>negative_effectors_refs</t>
+  </si>
+  <si>
+    <t>positive_effectors_refs_type</t>
+  </si>
+  <si>
+    <t>positive_effectors_refs</t>
+  </si>
+  <si>
+    <t>subunits_refs_type</t>
+  </si>
+  <si>
+    <t>subunits_refs</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
   <si>
     <t>diffusion</t>
@@ -1259,7 +1253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1277,10 +1271,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1304,7 +1294,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1433,13 +1423,13 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F42" activeCellId="1" sqref="1:1 F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2262,7 +2252,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2877,7 +2867,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3519,17 +3509,17 @@
   </sheetPr>
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>207</v>
       </c>
@@ -3566,47 +3556,41 @@
       <c r="L1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,13 +3598,13 @@
         <v>61</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3632,10 +3616,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -3647,10 +3631,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
@@ -3661,13 +3645,13 @@
         <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3679,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3694,10 +3678,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
@@ -3708,13 +3692,13 @@
         <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3726,10 +3710,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3741,10 +3725,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -3755,7 +3739,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -3782,10 +3766,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
@@ -3796,13 +3780,13 @@
         <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3817,13 +3801,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>5470828</v>
@@ -3832,10 +3816,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -3846,10 +3830,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
@@ -3864,10 +3848,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -3878,13 +3862,13 @@
         <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -3896,13 +3880,13 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
@@ -3912,16 +3896,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3939,16 +3923,16 @@
         <v>69</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3959,10 +3943,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
@@ -3972,13 +3956,13 @@
         <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3986,23 +3970,23 @@
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="T11" s="4"/>
       <c r="V11" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
@@ -4012,13 +3996,13 @@
         <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -4027,13 +4011,13 @@
       </c>
       <c r="T12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
@@ -4043,16 +4027,16 @@
         <v>72</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
@@ -4065,37 +4049,37 @@
         <v>2</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="T13" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W13" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
@@ -4105,19 +4089,19 @@
         <v>73</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
@@ -4133,31 +4117,31 @@
         <v>2</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M14" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="T14" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U14" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W14" s="4" t="n">
         <v>6815421</v>
@@ -4170,19 +4154,19 @@
         <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
@@ -4198,48 +4182,48 @@
         <v>2</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="T15" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W15" s="4" t="n">
         <v>6815421</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
@@ -4252,10 +4236,10 @@
         <v>1</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4263,16 +4247,16 @@
         <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
@@ -4282,25 +4266,25 @@
         <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W17" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,16 +4292,16 @@
         <v>77</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -4327,25 +4311,25 @@
         <v>2</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O18" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W18" s="4" t="n">
         <v>19686854</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,10 +4337,10 @@
         <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
@@ -4366,13 +4350,13 @@
         <v>2</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,29 +4364,29 @@
         <v>79</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G20" s="4"/>
       <c r="K20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,35 +4394,35 @@
         <v>80</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G21" s="4"/>
       <c r="K21" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,35 +4430,35 @@
         <v>81</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G22" s="4"/>
       <c r="K22" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>17914867</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4482,35 +4466,35 @@
         <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G23" s="4"/>
       <c r="K23" s="4" t="n">
         <v>2</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>8805555</v>
       </c>
       <c r="V23" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="X23" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="W23" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="Y23" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4502,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -4533,22 +4517,22 @@
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O24" s="4" t="n">
         <v>4154932</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W24" s="4" t="n">
         <v>6326623</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,34 +4540,34 @@
         <v>84</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>3</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W25" s="4" t="n">
         <v>12876349</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,7 +4575,7 @@
         <v>85</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -4603,16 +4587,16 @@
         <v>2</v>
       </c>
       <c r="V26" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y26" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="X26" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y26" s="4" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4620,28 +4604,28 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>4</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="W27" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y27" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y27" s="4" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4649,10 +4633,10 @@
         <v>87</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>48</v>
@@ -4661,22 +4645,22 @@
         <v>4</v>
       </c>
       <c r="L28" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="W28" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="X28" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="V28" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="W28" s="4" t="s">
+      <c r="Y28" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,7 +4668,7 @@
         <v>88</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
@@ -4696,16 +4680,16 @@
         <v>2</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,13 +4697,13 @@
         <v>89</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>54</v>
@@ -4731,22 +4715,22 @@
         <v>4</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>7447472</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W30" s="4" t="n">
         <v>8636984</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4754,34 +4738,34 @@
         <v>90</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>5128739</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,7 +4773,7 @@
         <v>91</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>51</v>
@@ -4801,19 +4785,19 @@
         <v>1</v>
       </c>
       <c r="V32" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="X32" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="Y32" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="X32" s="4" t="s">
+      <c r="Z32" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="Y32" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z32" s="4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,7 +4805,7 @@
         <v>92</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>52</v>
@@ -4833,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W33" s="4" t="n">
         <v>9376357</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,16 +4834,16 @@
         <v>93</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="J34" s="4" t="n">
         <v>4</v>
@@ -4868,28 +4852,28 @@
         <v>4</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M34" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="U34" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="T34" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="V34" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W34" s="4" t="n">
         <v>468836</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,10 +4881,10 @@
         <v>94</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>56</v>
@@ -4909,16 +4893,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M35" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="W35" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,28 +4910,28 @@
         <v>95</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="K36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,7 +4939,7 @@
         <v>183</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>1</v>
@@ -4966,7 +4950,7 @@
         <v>185</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>1</v>
@@ -4977,7 +4961,7 @@
         <v>187</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>1</v>
@@ -4988,7 +4972,7 @@
         <v>96</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -5017,7 +5001,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -5029,7 +5013,7 @@
         <v>97</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>53</v>
@@ -5058,7 +5042,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -5070,7 +5054,7 @@
         <v>98</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>60</v>
@@ -5100,7 +5084,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
@@ -5132,7 +5116,7 @@
   <dimension ref="A1:AR39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="1" sqref="1:1 A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10385,12 +10369,12 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="1" sqref="1:1 H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11161,12 +11145,12 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11816,7 +11800,7 @@
   <dimension ref="A2:A43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12053,7 +12037,7 @@
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12300,7 +12284,7 @@
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12547,7 +12531,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13036,7 +13020,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
